--- a/biology/Botanique/Alghero_(vignoble)/Alghero_(vignoble).xlsx
+++ b/biology/Botanique/Alghero_(vignoble)/Alghero_(vignoble).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L' Alghero est un vignoble italien de la région Sardaigne doté d'une appellation DOC depuis le 19 août 1995. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Sassari dans les communes d'Alghero, Olmedo, Ossi, Tissi, Usini, Uri, Ittiri ainsi qu'en partie dans la commune de Sassari.
 </t>
@@ -511,7 +523,9 @@
           <t>Appellations, vins</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Alghero Cabernet
